--- a/Test Data/T1838_T1840_T1841.xlsx
+++ b/Test Data/T1838_T1840_T1841.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFA73D-3CE4-4D8C-9440-6A459E48B8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC795AB-4427-4920-A958-5B88BCB693B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +903,7 @@
         <v>250</v>
       </c>
       <c r="R9" s="14">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>38</v>
